--- a/ANEXO VI.xlsx
+++ b/ANEXO VI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Downloads\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD69AD8-8F04-45B6-9869-C8E05950FAB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521BF928-5315-4AD4-AA20-B3CC4DD85399}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MATRIZ IPv4" sheetId="1" r:id="rId1"/>
@@ -341,15 +341,6 @@
     <t>2001:db8:1:20::/64</t>
   </si>
   <si>
-    <t>2001:DB8:1:10::1</t>
-  </si>
-  <si>
-    <t>2001:DB8:1:30::1</t>
-  </si>
-  <si>
-    <t>2001:DB8:1:20::1</t>
-  </si>
-  <si>
     <t>PC-04</t>
   </si>
   <si>
@@ -405,6 +396,15 @@
   </si>
   <si>
     <t>IPv6</t>
+  </si>
+  <si>
+    <t>2001:DB8:1:10::1/64</t>
+  </si>
+  <si>
+    <t>2001:DB8:1:20::1/64</t>
+  </si>
+  <si>
+    <t>2001:DB8:1:30::1/64</t>
   </si>
 </sst>
 </file>
@@ -29338,7 +29338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -57862,7 +57862,7 @@
     </row>
     <row r="24" spans="1:6" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="44" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B24" s="44">
         <v>20</v>
@@ -57880,7 +57880,7 @@
     </row>
     <row r="25" spans="1:6" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="44" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B25" s="44">
         <v>20</v>
@@ -57889,7 +57889,7 @@
         <v>73</v>
       </c>
       <c r="D25" s="44" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E25" s="44">
         <v>28</v>
@@ -58896,7 +58896,7 @@
   <dimension ref="A1:E1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -58989,7 +58989,7 @@
         <v>15</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -59006,7 +59006,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -59023,7 +59023,7 @@
         <v>15</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -59063,25 +59063,25 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>79</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>79</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -59089,13 +59089,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>82</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -59103,13 +59103,13 @@
         <v>30</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>81</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
@@ -60107,7 +60107,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657CFAC7-0845-4AB5-88A7-60D9299A7718}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -60120,7 +60120,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -60132,7 +60132,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -60147,7 +60147,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D4" s="1">
         <v>30</v>
@@ -60159,10 +60159,10 @@
         <v>101</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C5" s="45" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D5" s="1">
         <v>30</v>
@@ -60174,7 +60174,7 @@
     </row>
     <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -60188,7 +60188,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>4</v>
@@ -60203,7 +60203,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="54" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D10" s="1">
         <v>64</v>
@@ -60215,10 +60215,10 @@
         <v>101</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C11" s="46" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D11" s="1">
         <v>64</v>

--- a/ANEXO VI.xlsx
+++ b/ANEXO VI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Downloads\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521BF928-5315-4AD4-AA20-B3CC4DD85399}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC0EF96-2019-41A2-8D4D-47F884ED0520}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="127">
   <si>
     <t>VLAN</t>
   </si>
@@ -411,7 +411,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,6 +448,12 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -653,7 +659,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -810,6 +816,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1027,8 +1036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView topLeftCell="C28" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -57492,7 +57501,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F23" sqref="E23:F23"/>
+      <selection activeCell="G1" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -58896,7 +58905,7 @@
   <dimension ref="A1:E1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -60105,26 +60114,29 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657CFAC7-0845-4AB5-88A7-60D9299A7718}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.625" customWidth="1"/>
-    <col min="2" max="2" width="26.5" customWidth="1"/>
-    <col min="3" max="3" width="24.875" customWidth="1"/>
+    <col min="2" max="3" width="26.5" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>11</v>
       </c>
@@ -60137,9 +60149,11 @@
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="51" t="s">
         <v>69</v>
       </c>
@@ -60152,9 +60166,11 @@
       <c r="D4" s="1">
         <v>30</v>
       </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="56">
+        <v>255255255252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
         <v>101</v>
       </c>
@@ -60167,20 +60183,22 @@
       <c r="D5" s="1">
         <v>30</v>
       </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="E5" s="56">
+        <v>255255255252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="D6" s="55"/>
     </row>
-    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D8" s="55"/>
     </row>
-    <row r="9" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="47" t="s">
         <v>11</v>
       </c>
@@ -60195,7 +60213,7 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="53" t="s">
         <v>69</v>
       </c>
@@ -60210,7 +60228,7 @@
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="50" t="s">
         <v>101</v>
       </c>
@@ -60225,20 +60243,20 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A12" s="55"/>
       <c r="B12" s="55"/>
       <c r="C12" s="55"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="55"/>
       <c r="B13" s="55"/>
       <c r="C13" s="55"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D14" s="55"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D16" s="55"/>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.2">
@@ -60246,5 +60264,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ANEXO VI.xlsx
+++ b/ANEXO VI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Downloads\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC0EF96-2019-41A2-8D4D-47F884ED0520}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898F7126-F782-4F01-862A-89B2B43F2B6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57500,8 +57500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G1" sqref="F1:G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -60117,7 +60117,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/ANEXO VI.xlsx
+++ b/ANEXO VI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Downloads\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898F7126-F782-4F01-862A-89B2B43F2B6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8161BBCA-3A0A-49B3-A55E-970A1BB0BE60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MATRIZ IPv4" sheetId="1" r:id="rId1"/>
@@ -58904,8 +58904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -59087,7 +59087,7 @@
         <v>106</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>110</v>
@@ -60116,7 +60116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657CFAC7-0845-4AB5-88A7-60D9299A7718}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>

--- a/ANEXO VI.xlsx
+++ b/ANEXO VI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Downloads\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8161BBCA-3A0A-49B3-A55E-970A1BB0BE60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{658D0E17-3494-49D1-856A-95832506CFF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58905,7 +58905,7 @@
   <dimension ref="A1:E1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
